--- a/FlyEdit4_QCustomPlot/excelFrom.xlsx
+++ b/FlyEdit4_QCustomPlot/excelFrom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作201808_飞行包编辑\飞行包编辑_V0.0.2.180809_Alpha\FlyEdit4_QCustomPlot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作201808_飞行包编辑\飞行包编辑_V0.0.2.180809_Alpha\FlyEdit20180811\FlyEdit4_QCustomPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -746,7 +746,7 @@
   </si>
   <si>
     <r>
-      <t>2018/07/22-16:59</t>
+      <t>2018/07/22-22:59</t>
     </r>
     <r>
       <rPr>
@@ -782,7 +782,7 @@
   </si>
   <si>
     <r>
-      <t>2018/07/22-16:59</t>
+      <t>2018/07/22-23:59</t>
     </r>
     <r>
       <rPr>
@@ -818,7 +818,7 @@
   </si>
   <si>
     <r>
-      <t>2018/07/22-16:59</t>
+      <t>2018/07/22-23:59</t>
     </r>
     <r>
       <rPr>
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
